--- a/publication/analyses/outputs/rmse_z/idpt_bin-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/idpt_bin-z_rmse-z.xlsx
@@ -576,40 +576,40 @@
         <v>130</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8897240474337672</v>
+        <v>0.8897240474337662</v>
       </c>
       <c r="E2" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.80828327562975</v>
+        <v>-47.80829213686104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002923743527917499</v>
+        <v>0.002925869579967151</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0391752516396885</v>
+        <v>-0.03917356029566955</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.80828328593273</v>
+        <v>-47.80829537787529</v>
       </c>
       <c r="J2" t="n">
-        <v>1.030298663647232e-08</v>
+        <v>3.241014244800461e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.536486874482087</v>
+        <v>0.5364863640834298</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.180130918488e-13</v>
+        <v>-1.305947687156057e-13</v>
       </c>
       <c r="M2" t="n">
-        <v>6.092338213310387e-14</v>
+        <v>6.177561655066575e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6797537070841284</v>
+        <v>0.6797537069987838</v>
       </c>
       <c r="O2" t="n">
-        <v>9.047679591485472e-16</v>
+        <v>7.815374571432185e-15</v>
       </c>
       <c r="P2" t="n">
         <v>48.2183908045977</v>
@@ -624,19 +624,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3040079870662939</v>
+        <v>0.3040079871735362</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8332973971719603</v>
+        <v>0.8332973971127037</v>
       </c>
       <c r="V2" t="n">
-        <v>1.075429952179036</v>
+        <v>1.075429952128085</v>
       </c>
       <c r="W2" t="n">
-        <v>47.80828327562975</v>
+        <v>47.80829213686104</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6469511852997055</v>
+        <v>0.6469511861084859</v>
       </c>
       <c r="Y2" t="n">
         <v>261</v>
@@ -659,40 +659,40 @@
         <v>390</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9247493629727606</v>
+        <v>0.9247493629727603</v>
       </c>
       <c r="E3" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-43.14639194383132</v>
+        <v>-43.14639192785106</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02975120891287799</v>
+        <v>0.02975120514449314</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.03411911582462523</v>
+        <v>-0.03411911892645469</v>
       </c>
       <c r="I3" t="n">
-        <v>-43.14635805364573</v>
+        <v>-43.14635803198964</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.389018559171419e-05</v>
+        <v>-3.389586141783261e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3812032343302676</v>
+        <v>0.381203235204518</v>
       </c>
       <c r="L3" t="n">
-        <v>2.115585698903236e-14</v>
+        <v>-4.309733608168703e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.371543376512072e-14</v>
+        <v>2.337308810674418e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6578093552476344</v>
+        <v>0.6578093552447675</v>
       </c>
       <c r="O3" t="n">
-        <v>2.170721774788337e-15</v>
+        <v>-1.131655901548422e-15</v>
       </c>
       <c r="P3" t="n">
         <v>48.39768339768339</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2042907691506579</v>
+        <v>0.2042907691664682</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8051325746836485</v>
+        <v>0.8051325747226458</v>
       </c>
       <c r="V3" t="n">
-        <v>1.00531265442702</v>
+        <v>1.005312654395771</v>
       </c>
       <c r="W3" t="n">
-        <v>43.14639194383132</v>
+        <v>43.14639192785106</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5018445706059224</v>
+        <v>0.5018445706051547</v>
       </c>
       <c r="Y3" t="n">
         <v>259</v>
@@ -742,40 +742,40 @@
         <v>650</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9508040436138364</v>
+        <v>0.9508040436138356</v>
       </c>
       <c r="E4" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.68518843174852</v>
+        <v>-37.68518843044414</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02759764840439902</v>
+        <v>0.02759764808920894</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.05464248323543681</v>
+        <v>-0.05464248348030294</v>
       </c>
       <c r="I4" t="n">
-        <v>-37.68518844029698</v>
+        <v>-37.68518843851261</v>
       </c>
       <c r="J4" t="n">
-        <v>8.54845125805762e-09</v>
+        <v>8.068471879762879e-09</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3700772141391495</v>
+        <v>0.3700772141542975</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.452375878540637e-13</v>
+        <v>-1.030448625134691e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.276628866477019e-14</v>
+        <v>1.132855516504069e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6545488880741243</v>
+        <v>0.6545488882878902</v>
       </c>
       <c r="O4" t="n">
-        <v>-6.916455488371222e-15</v>
+        <v>6.586366190628263e-15</v>
       </c>
       <c r="P4" t="n">
         <v>48.2183908045977</v>
@@ -790,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.160327874565604</v>
+        <v>0.1603278745660885</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7244842913102065</v>
+        <v>0.7244842916176962</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9325392849415788</v>
+        <v>0.9325392852128277</v>
       </c>
       <c r="W4" t="n">
-        <v>37.68518843174852</v>
+        <v>37.68518843044414</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4626809210137409</v>
+        <v>0.4626809210139571</v>
       </c>
       <c r="Y4" t="n">
         <v>261</v>
@@ -825,40 +825,40 @@
         <v>911</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9650235505958501</v>
+        <v>0.9650235505958499</v>
       </c>
       <c r="E5" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-32.98388032587176</v>
+        <v>-32.98388032750527</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02209911729115602</v>
+        <v>0.02209911768191607</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04824725386150343</v>
+        <v>-0.04824725354902708</v>
       </c>
       <c r="I5" t="n">
-        <v>-32.98388033301514</v>
+        <v>-32.98388033521916</v>
       </c>
       <c r="J5" t="n">
-        <v>7.143377175511347e-09</v>
+        <v>7.713892791263733e-09</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2252291979382969</v>
+        <v>0.2252291980413738</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.49754623346517e-13</v>
+        <v>-1.593950599436788e-13</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.741561343839202e-14</v>
+        <v>5.362589895342691e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6710740164666805</v>
+        <v>0.6710740162466016</v>
       </c>
       <c r="O5" t="n">
-        <v>-3.422390085248956e-15</v>
+        <v>7.828401613627259e-15</v>
       </c>
       <c r="P5" t="n">
         <v>48.2183908045977</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1190258250024553</v>
+        <v>0.119025824922547</v>
       </c>
       <c r="U5" t="n">
-        <v>0.659075122038371</v>
+        <v>0.6590751217854093</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8918099694932551</v>
+        <v>0.8918099693207922</v>
       </c>
       <c r="W5" t="n">
-        <v>32.98388032587176</v>
+        <v>32.98388032750527</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2906401944109918</v>
+        <v>0.2906401944109478</v>
       </c>
       <c r="Y5" t="n">
         <v>261</v>
@@ -908,40 +908,40 @@
         <v>1172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9755711938749337</v>
+        <v>0.9755711938749331</v>
       </c>
       <c r="E6" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>-28.40995575994</v>
+        <v>-28.40995575663889</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01600227755264895</v>
+        <v>0.01600227676446048</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05433348803424662</v>
+        <v>-0.0543334886667961</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.40995576800576</v>
+        <v>-28.40995576350307</v>
       </c>
       <c r="J6" t="n">
-        <v>8.065753236870122e-09</v>
+        <v>6.864178783907429e-09</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1877101638972451</v>
+        <v>0.1877101640804041</v>
       </c>
       <c r="L6" t="n">
-        <v>3.394815293076034e-14</v>
+        <v>-5.896517841898053e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>2.73361580285483e-14</v>
+        <v>4.027004357902819e-15</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6738127078395083</v>
+        <v>0.6738127077900994</v>
       </c>
       <c r="O6" t="n">
-        <v>-3.837500772665076e-15</v>
+        <v>-3.47189284559024e-15</v>
       </c>
       <c r="P6" t="n">
         <v>48.2183908045977</v>
@@ -956,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03859801876264508</v>
+        <v>0.03859801887617277</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5663197277910733</v>
+        <v>0.5663197280762615</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8281098796413564</v>
+        <v>0.8281098798626636</v>
       </c>
       <c r="W6" t="n">
-        <v>28.40995575994</v>
+        <v>28.40995575663889</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2373940968345649</v>
+        <v>0.2373940968348825</v>
       </c>
       <c r="Y6" t="n">
         <v>261</v>
@@ -991,40 +991,40 @@
         <v>1433</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9818862258795614</v>
+        <v>0.9818862258795612</v>
       </c>
       <c r="E7" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>-22.86769735051382</v>
+        <v>-22.86769729878649</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01384438790168386</v>
+        <v>0.01384437554565771</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05995686451854768</v>
+        <v>-0.05995687440136698</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.86769736418611</v>
+        <v>-22.86769729371632</v>
       </c>
       <c r="J7" t="n">
-        <v>1.367228332996923e-08</v>
+        <v>-5.070167585264052e-09</v>
       </c>
       <c r="K7" t="n">
-        <v>0.197720996272758</v>
+        <v>0.1977209984298197</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.439367994737974e-13</v>
+        <v>-3.371249639603148e-14</v>
       </c>
       <c r="M7" t="n">
-        <v>3.035545420816108e-14</v>
+        <v>-1.033496404676205e-15</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6645151887442072</v>
+        <v>0.6645151888228411</v>
       </c>
       <c r="O7" t="n">
-        <v>1.997657041914135e-15</v>
+        <v>-2.040087979349521e-15</v>
       </c>
       <c r="P7" t="n">
         <v>48.2183908045977</v>
@@ -1039,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02285812051948038</v>
+        <v>0.02285812056495252</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3995682315944482</v>
+        <v>0.3995682316677942</v>
       </c>
       <c r="V7" t="n">
-        <v>0.741333907645029</v>
+        <v>0.741333907719171</v>
       </c>
       <c r="W7" t="n">
-        <v>22.86769735051382</v>
+        <v>22.86769729878649</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2627622477112336</v>
+        <v>0.2627622477124358</v>
       </c>
       <c r="Y7" t="n">
         <v>261</v>
@@ -1074,40 +1074,40 @@
         <v>1688.5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9836379317687313</v>
+        <v>0.9836379317687309</v>
       </c>
       <c r="E8" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-18.20528716810437</v>
+        <v>-18.20528717079671</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.005241924242874133</v>
+        <v>-0.00524192363183366</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0223796536969658</v>
+        <v>0.02237965419872463</v>
       </c>
       <c r="I8" t="n">
-        <v>-18.20520396641349</v>
+        <v>-18.20520397000869</v>
       </c>
       <c r="J8" t="n">
-        <v>-8.320169087839513e-05</v>
+        <v>-8.320078802334596e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2215735369139411</v>
+        <v>0.2215735363164957</v>
       </c>
       <c r="L8" t="n">
-        <v>1.662412429936921e-13</v>
+        <v>-5.28641019847953e-15</v>
       </c>
       <c r="M8" t="n">
-        <v>-2.728484105318785e-15</v>
+        <v>1.112985120732546e-13</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6326715904339756</v>
+        <v>0.6326715904843756</v>
       </c>
       <c r="O8" t="n">
-        <v>-3.582911745070305e-15</v>
+        <v>-2.955857780762017e-15</v>
       </c>
       <c r="P8" t="n">
         <v>48.604</v>
@@ -1122,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.005363395099373093</v>
+        <v>-0.005363395017258087</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2068211504406016</v>
+        <v>0.2068211505001396</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6506792072060634</v>
+        <v>0.6506792072482996</v>
       </c>
       <c r="W8" t="n">
-        <v>18.20528716810437</v>
+        <v>18.20528717079671</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2904873881168143</v>
+        <v>0.2904873881144118</v>
       </c>
       <c r="Y8" t="n">
         <v>250</v>
@@ -1157,40 +1157,40 @@
         <v>1912.5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9817575013804292</v>
+        <v>0.9817575013804291</v>
       </c>
       <c r="E9" t="n">
         <v>-13.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-13.53671518555242</v>
+        <v>-13.53671476055764</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002177222657297243</v>
+        <v>0.002177137551666867</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0422933727496822</v>
+        <v>0.04229329301962414</v>
       </c>
       <c r="I9" t="n">
-        <v>-13.53538260579001</v>
+        <v>-13.53538203551962</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.001332579762412425</v>
+        <v>-0.00133272503802242</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2318347102361565</v>
+        <v>0.231834727691712</v>
       </c>
       <c r="L9" t="n">
-        <v>8.009488134458959e-14</v>
+        <v>1.428171554082675e-14</v>
       </c>
       <c r="M9" t="n">
-        <v>4.884252374041591e-14</v>
+        <v>1.317016080929075e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6281765021545501</v>
+        <v>0.6281765020902007</v>
       </c>
       <c r="O9" t="n">
-        <v>1.859062847547832e-15</v>
+        <v>4.981985643330563e-16</v>
       </c>
       <c r="P9" t="n">
         <v>46.24747474747475</v>
@@ -1205,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01227419723402</v>
+        <v>0.01227419719033881</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2173317491334996</v>
+        <v>0.2173317490628284</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6466466317618951</v>
+        <v>0.6466466316886486</v>
       </c>
       <c r="W9" t="n">
-        <v>13.53671518555242</v>
+        <v>13.53671476055764</v>
       </c>
       <c r="X9" t="n">
-        <v>0.3357853870414654</v>
+        <v>0.335785380572522</v>
       </c>
       <c r="Y9" t="n">
         <v>198</v>
@@ -1240,40 +1240,40 @@
         <v>2088</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9779315602172315</v>
+        <v>0.9779315602172314</v>
       </c>
       <c r="E10" t="n">
         <v>-8.099999999999994</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.415321620322457</v>
+        <v>-8.415321277522416</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01106733110412552</v>
+        <v>-0.01106738553129996</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1136202864885391</v>
+        <v>0.1136202201420725</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.412366556792774</v>
+        <v>-8.412366102243347</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.002955063529682263</v>
+        <v>-0.002955175279069088</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1657757435708052</v>
+        <v>0.165775715254761</v>
       </c>
       <c r="L10" t="n">
-        <v>8.981776832813897e-14</v>
+        <v>9.199939285332559e-14</v>
       </c>
       <c r="M10" t="n">
-        <v>-6.270968675346486e-15</v>
+        <v>3.766196913158799e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5808419032007267</v>
+        <v>0.5808419032288583</v>
       </c>
       <c r="O10" t="n">
-        <v>-6.252260873154578e-16</v>
+        <v>-5.72798888930381e-16</v>
       </c>
       <c r="P10" t="n">
         <v>45.90849673202614</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.02086118273290255</v>
+        <v>-0.02086118273560414</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09282968004053399</v>
+        <v>0.0928296800390883</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5833968778041523</v>
+        <v>0.5833968778452545</v>
       </c>
       <c r="W10" t="n">
-        <v>8.415321620322457</v>
+        <v>8.415321277522416</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2215145875365767</v>
+        <v>0.221514583683448</v>
       </c>
       <c r="Y10" t="n">
         <v>153</v>
@@ -1323,40 +1323,40 @@
         <v>2208</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9521832822613845</v>
+        <v>0.9521832822613843</v>
       </c>
       <c r="E11" t="n">
         <v>-3.099999999999994</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.162115872815868</v>
+        <v>-4.162115870581817</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04125131100947362</v>
+        <v>-0.04125131145916728</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1533494380834554</v>
+        <v>0.1533494374243509</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.162115879123986</v>
+        <v>-4.162115875665233</v>
       </c>
       <c r="J11" t="n">
-        <v>6.308118708062425e-09</v>
+        <v>5.083415836379294e-09</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2572769419838773</v>
+        <v>0.2572769413988149</v>
       </c>
       <c r="L11" t="n">
-        <v>2.43368543708349e-14</v>
+        <v>1.780408515380923e-14</v>
       </c>
       <c r="M11" t="n">
-        <v>1.780185194657579e-14</v>
+        <v>9.96776097166333e-15</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5119793205950692</v>
+        <v>0.5119793205995871</v>
       </c>
       <c r="O11" t="n">
-        <v>-9.698001501473788e-17</v>
+        <v>2.41186381211672e-16</v>
       </c>
       <c r="P11" t="n">
         <v>44.58620689655172</v>
@@ -1371,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.09781223955822596</v>
+        <v>0.09781223954539053</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01287845686487135</v>
+        <v>-0.0128784568677301</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5219803741856619</v>
+        <v>0.5219803741880492</v>
       </c>
       <c r="W11" t="n">
-        <v>4.162115872815868</v>
+        <v>4.162115870581817</v>
       </c>
       <c r="X11" t="n">
-        <v>0.3256955643638569</v>
+        <v>0.3256955643640265</v>
       </c>
       <c r="Y11" t="n">
         <v>87</v>
@@ -1406,40 +1406,40 @@
         <v>2381.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9590687833407612</v>
+        <v>0.959068783340761</v>
       </c>
       <c r="E12" t="n">
         <v>1.900000000000006</v>
       </c>
       <c r="F12" t="n">
-        <v>2.704419803059352</v>
+        <v>2.704419632769613</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001824240180390309</v>
+        <v>0.001824279837643241</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0484980447090181</v>
+        <v>-0.0484980112397529</v>
       </c>
       <c r="I12" t="n">
         <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.204419803059352</v>
+        <v>1.204419632769613</v>
       </c>
       <c r="K12" t="n">
-        <v>1.507976667572875</v>
+        <v>1.507976546886507</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.71568341798502e-13</v>
+        <v>9.12771460978781e-15</v>
       </c>
       <c r="M12" t="n">
-        <v>2.096271540433877e-14</v>
+        <v>2.272114120780945e-15</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6173413321162038</v>
+        <v>0.6173413320975418</v>
       </c>
       <c r="O12" t="n">
-        <v>6.866302398450968e-16</v>
+        <v>-4.244468024913099e-16</v>
       </c>
       <c r="P12" t="n">
         <v>48.31153846153846</v>
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.005436918746531369</v>
+        <v>0.005436918729007555</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.0266598929589398</v>
+        <v>-0.02665989297225807</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6194473322752713</v>
+        <v>0.6194473322602679</v>
       </c>
       <c r="W12" t="n">
-        <v>-2.704419803059352</v>
+        <v>-2.704419632769613</v>
       </c>
       <c r="X12" t="n">
-        <v>1.716338351940101</v>
+        <v>1.716338235456217</v>
       </c>
       <c r="Y12" t="n">
         <v>260</v>
@@ -1489,40 +1489,40 @@
         <v>2635</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9768869724195101</v>
+        <v>0.9768869724195099</v>
       </c>
       <c r="E13" t="n">
         <v>6.900000000000006</v>
       </c>
       <c r="F13" t="n">
-        <v>6.884258409791935</v>
+        <v>6.884258520676767</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01024690393479685</v>
+        <v>-0.01024693172177785</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.06685347852398409</v>
+        <v>-0.06685350028273639</v>
       </c>
       <c r="I13" t="n">
-        <v>6.883590418386334</v>
+        <v>6.883590571785827</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006679914056007759</v>
+        <v>0.0006679488909398449</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1234919520865812</v>
+        <v>0.1234919467524121</v>
       </c>
       <c r="L13" t="n">
-        <v>1.875422893905265e-14</v>
+        <v>1.596673198514497e-14</v>
       </c>
       <c r="M13" t="n">
-        <v>-3.742215714096844e-14</v>
+        <v>8.946959232859814e-15</v>
       </c>
       <c r="N13" t="n">
-        <v>0.619937871399485</v>
+        <v>0.619937871423665</v>
       </c>
       <c r="O13" t="n">
-        <v>2.22718829433913e-15</v>
+        <v>-1.410252931077501e-15</v>
       </c>
       <c r="P13" t="n">
         <v>47.31983805668016</v>
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04600768446194262</v>
+        <v>0.04600768446073163</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.02576420784603418</v>
+        <v>-0.0257642078493416</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6228982450959764</v>
+        <v>0.62289824512104</v>
       </c>
       <c r="W13" t="n">
-        <v>-6.884258409791935</v>
+        <v>-6.884258520676767</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1709958213657436</v>
+        <v>0.1709958217190231</v>
       </c>
       <c r="Y13" t="n">
         <v>247</v>
@@ -1572,40 +1572,40 @@
         <v>2887.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9890745249261051</v>
+        <v>0.9890745249261049</v>
       </c>
       <c r="E14" t="n">
         <v>11.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>12.29422760403256</v>
+        <v>12.29422760535999</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.007359601188087311</v>
+        <v>-0.007359601509549474</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.05938080550191049</v>
+        <v>-0.05938080575868231</v>
       </c>
       <c r="I14" t="n">
-        <v>12.29422759640145</v>
+        <v>12.29422759822129</v>
       </c>
       <c r="J14" t="n">
-        <v>7.631112628633032e-09</v>
+        <v>7.13870581866018e-09</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09016969342648622</v>
+        <v>0.09016969350461093</v>
       </c>
       <c r="L14" t="n">
-        <v>-2.692082130000135e-13</v>
+        <v>-1.300183044776524e-13</v>
       </c>
       <c r="M14" t="n">
-        <v>-7.383500841306323e-14</v>
+        <v>-7.36955850564824e-14</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6516245890210234</v>
+        <v>0.6516245889899361</v>
       </c>
       <c r="O14" t="n">
-        <v>-9.280905071163978e-16</v>
+        <v>-1.197039883236833e-15</v>
       </c>
       <c r="P14" t="n">
         <v>47.8953488372093</v>
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06300959653746833</v>
+        <v>0.06300959655128305</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.08238728285949692</v>
+        <v>-0.08238728285210194</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6617489960739015</v>
+        <v>0.661748996050448</v>
       </c>
       <c r="W14" t="n">
-        <v>-12.29422760403256</v>
+        <v>-12.29422760535999</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1311699634638374</v>
+        <v>0.1311699634638438</v>
       </c>
       <c r="Y14" t="n">
         <v>258</v>
@@ -1655,40 +1655,40 @@
         <v>3147</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9891882420972181</v>
+        <v>0.9891882420972179</v>
       </c>
       <c r="E15" t="n">
         <v>16.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>17.00709992187609</v>
+        <v>17.00709099745004</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.009828890595763345</v>
+        <v>-0.009826763377500766</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.05093415702338815</v>
+        <v>-0.05093245158564415</v>
       </c>
       <c r="I15" t="n">
-        <v>17.00709991454513</v>
+        <v>17.00708776609422</v>
       </c>
       <c r="J15" t="n">
-        <v>7.330959897881643e-09</v>
+        <v>3.231355817460516e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09003678615104173</v>
+        <v>0.09003675255760256</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.553672048401633e-13</v>
+        <v>-2.191267601597377e-13</v>
       </c>
       <c r="M15" t="n">
-        <v>-2.069013330182667e-14</v>
+        <v>-2.551215943483463e-14</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6573466751666182</v>
+        <v>0.6573466751913932</v>
       </c>
       <c r="O15" t="n">
-        <v>-1.809323231893909e-15</v>
+        <v>4.466095437278036e-15</v>
       </c>
       <c r="P15" t="n">
         <v>48.2183908045977</v>
@@ -1703,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.106051657727277</v>
+        <v>0.1060516577892526</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.1068985598156863</v>
+        <v>-0.1068985597245808</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6737276649679607</v>
+        <v>0.6737276649855716</v>
       </c>
       <c r="W15" t="n">
-        <v>-17.00709992187609</v>
+        <v>-17.00709099745004</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1292205838582925</v>
+        <v>0.1292205833830788</v>
       </c>
       <c r="Y15" t="n">
         <v>261</v>
@@ -1738,40 +1738,40 @@
         <v>3408</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9859954920824434</v>
+        <v>0.985995492082443</v>
       </c>
       <c r="E16" t="n">
         <v>21.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>22.14348754107173</v>
+        <v>22.14348748705484</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01293977054359126</v>
+        <v>-0.01293975780441944</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.04698049106853498</v>
+        <v>-0.04698048052184928</v>
       </c>
       <c r="I16" t="n">
-        <v>22.14348720070471</v>
+        <v>22.14348712706708</v>
       </c>
       <c r="J16" t="n">
-        <v>3.403670254536661e-07</v>
+        <v>3.599877586296752e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>0.108786100484193</v>
+        <v>0.1087860994309962</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.163028804807903e-13</v>
+        <v>-1.166295667960822e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>1.040504421661148e-13</v>
+        <v>5.191675101743309e-14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6675066101043114</v>
+        <v>0.6675066101047721</v>
       </c>
       <c r="O16" t="n">
-        <v>3.443392867563464e-15</v>
+        <v>7.614439092023254e-16</v>
       </c>
       <c r="P16" t="n">
         <v>48.2183908045977</v>
@@ -1786,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1738869942219271</v>
+        <v>0.173886994155225</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.100844592135399</v>
+        <v>-0.1008445921929303</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6927736876441554</v>
+        <v>0.6927736876531423</v>
       </c>
       <c r="W16" t="n">
-        <v>-22.14348754107173</v>
+        <v>-22.14348748705484</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1580359985935365</v>
+        <v>0.1580359985901607</v>
       </c>
       <c r="Y16" t="n">
         <v>261</v>
@@ -1821,40 +1821,40 @@
         <v>3669</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9802429334610536</v>
+        <v>0.9802429334610533</v>
       </c>
       <c r="E17" t="n">
         <v>26.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>27.84518044731465</v>
+        <v>27.84518184159469</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01984369002716198</v>
+        <v>-0.0198440218284756</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.03645117836652089</v>
+        <v>-0.03645144604519435</v>
       </c>
       <c r="I17" t="n">
-        <v>27.84517993602328</v>
+        <v>27.84518183438559</v>
       </c>
       <c r="J17" t="n">
-        <v>5.112913756116713e-07</v>
+        <v>7.209093297790243e-09</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1322967869363286</v>
+        <v>0.1322967894002044</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.446453642260079e-13</v>
+        <v>-1.095207364560303e-13</v>
       </c>
       <c r="M17" t="n">
-        <v>5.409125680359546e-14</v>
+        <v>-3.836031907193081e-15</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6736723506103148</v>
+        <v>0.6736723507408187</v>
       </c>
       <c r="O17" t="n">
-        <v>-3.186480985416309e-15</v>
+        <v>5.475345591991163e-17</v>
       </c>
       <c r="P17" t="n">
         <v>48.2183908045977</v>
@@ -1869,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2280479215488374</v>
+        <v>0.2280479216035083</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.112465303277043</v>
+        <v>-0.112465303214166</v>
       </c>
       <c r="V17" t="n">
-        <v>0.7024222199570412</v>
+        <v>0.7024222201133327</v>
       </c>
       <c r="W17" t="n">
-        <v>-27.84518044731465</v>
+        <v>-27.84518184159469</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1840610488067608</v>
+        <v>0.1840610489246619</v>
       </c>
       <c r="Y17" t="n">
         <v>261</v>
@@ -1904,40 +1904,40 @@
         <v>3930</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9715943216452481</v>
+        <v>0.9715943216452469</v>
       </c>
       <c r="E18" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>32.63276287135432</v>
+        <v>32.63277173036757</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01700250894167209</v>
+        <v>-0.01700462157504085</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.02774639586130525</v>
+        <v>-0.02774809075181531</v>
       </c>
       <c r="I18" t="n">
-        <v>32.6327596643745</v>
+        <v>32.63277172314477</v>
       </c>
       <c r="J18" t="n">
-        <v>3.206979813764457e-06</v>
+        <v>7.22280286665779e-09</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1594710429585817</v>
+        <v>0.1594709461189752</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.956272521582418e-13</v>
+        <v>-1.924964817175597e-13</v>
       </c>
       <c r="M18" t="n">
-        <v>-3.978081168010213e-14</v>
+        <v>1.682673795957383e-14</v>
       </c>
       <c r="N18" t="n">
-        <v>0.66825089498559</v>
+        <v>0.66825089498201</v>
       </c>
       <c r="O18" t="n">
-        <v>1.591213325427799e-15</v>
+        <v>3.403141965760723e-15</v>
       </c>
       <c r="P18" t="n">
         <v>48.2183908045977</v>
@@ -1952,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2508049797880557</v>
+        <v>0.2508049797232352</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.07628867657494154</v>
+        <v>-0.07628867652306351</v>
       </c>
       <c r="V18" t="n">
-        <v>0.696071246803518</v>
+        <v>0.6960712467801612</v>
       </c>
       <c r="W18" t="n">
-        <v>-32.63276287135432</v>
+        <v>-32.63277173036757</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2128104597018803</v>
+        <v>0.2128104600968002</v>
       </c>
       <c r="Y18" t="n">
         <v>261</v>
@@ -1987,40 +1987,40 @@
         <v>4191</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9586929505399648</v>
+        <v>0.9586929505399638</v>
       </c>
       <c r="E19" t="n">
         <v>36.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>37.69292632284325</v>
+        <v>37.6929178847024</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01866188778991662</v>
+        <v>-0.01865987549203853</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.02945516212239607</v>
+        <v>-0.02945354722412365</v>
       </c>
       <c r="I19" t="n">
-        <v>37.69292631543188</v>
+        <v>37.69291482618024</v>
       </c>
       <c r="J19" t="n">
-        <v>7.411367786402817e-09</v>
+        <v>3.058522163593668e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2103544264660853</v>
+        <v>0.2103545396833743</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.675883782535706e-13</v>
+        <v>-2.243235397351575e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>8.079903285393398e-14</v>
+        <v>5.52650730627729e-14</v>
       </c>
       <c r="N19" t="n">
-        <v>0.653585225870717</v>
+        <v>0.6535852258355977</v>
       </c>
       <c r="O19" t="n">
-        <v>3.129148706857781e-15</v>
+        <v>3.619789653204937e-15</v>
       </c>
       <c r="P19" t="n">
         <v>48.2183908045977</v>
@@ -2035,19 +2035,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2923926736232773</v>
+        <v>0.29239267362481</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.09199749592940416</v>
+        <v>-0.0919974960269931</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6933752744351637</v>
+        <v>0.6933752744054632</v>
       </c>
       <c r="W19" t="n">
-        <v>-37.69292632284325</v>
+        <v>-37.6929178847024</v>
       </c>
       <c r="X19" t="n">
-        <v>0.2787726341727781</v>
+        <v>0.2787726332044629</v>
       </c>
       <c r="Y19" t="n">
         <v>261</v>
@@ -2070,40 +2070,40 @@
         <v>4452</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9409799581662533</v>
+        <v>0.9409799581662516</v>
       </c>
       <c r="E20" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>42.43896636013632</v>
+        <v>42.43896636380737</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01676473283312252</v>
+        <v>-0.01676473370928322</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0004251732019800466</v>
+        <v>0.0004251725020021173</v>
       </c>
       <c r="I20" t="n">
-        <v>42.4389663528382</v>
+        <v>42.43896635786599</v>
       </c>
       <c r="J20" t="n">
-        <v>7.298118844037618e-09</v>
+        <v>5.941381212898355e-09</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2376051614120672</v>
+        <v>0.2376051613110004</v>
       </c>
       <c r="L20" t="n">
-        <v>-9.827983467490218e-14</v>
+        <v>-1.182039778956584e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>6.092338213310387e-14</v>
+        <v>3.991443191290304e-14</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6513122265296853</v>
+        <v>0.6513122265198737</v>
       </c>
       <c r="O20" t="n">
-        <v>-6.532875560227262e-15</v>
+        <v>-2.012013374129115e-15</v>
       </c>
       <c r="P20" t="n">
         <v>48.2183908045977</v>
@@ -2118,19 +2118,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2352453162225595</v>
+        <v>0.2352453161768321</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.2342059835141476</v>
+        <v>-0.2342059834987727</v>
       </c>
       <c r="V20" t="n">
-        <v>0.709409719354795</v>
+        <v>0.7094097193175042</v>
       </c>
       <c r="W20" t="n">
-        <v>-42.43896636013632</v>
+        <v>-42.43896636380737</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3137071489487639</v>
+        <v>0.3137071489490161</v>
       </c>
       <c r="Y20" t="n">
         <v>261</v>
@@ -2153,40 +2153,40 @@
         <v>4712.5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9087046057688215</v>
+        <v>0.9087046057688193</v>
       </c>
       <c r="E21" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>47.73882925068475</v>
+        <v>47.73882112127422</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002185767324507275</v>
+        <v>-0.002183831943816201</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01007005711401894</v>
+        <v>-0.01006850280493628</v>
       </c>
       <c r="I21" t="n">
-        <v>47.73906568297599</v>
+        <v>47.73905463312075</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0002364322912375793</v>
+        <v>-0.0002335118465311648</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3470972077831705</v>
+        <v>0.347097546808841</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.568625571315771e-13</v>
+        <v>-2.751388860334513e-14</v>
       </c>
       <c r="M21" t="n">
-        <v>8.394983426367294e-14</v>
+        <v>1.405926657145511e-16</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6386075249085558</v>
+        <v>0.6386075248678359</v>
       </c>
       <c r="O21" t="n">
-        <v>-3.139796115411068e-15</v>
+        <v>-9.756725342177001e-15</v>
       </c>
       <c r="P21" t="n">
         <v>48.15384615384615</v>
@@ -2201,19 +2201,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3125266491955977</v>
+        <v>0.3125266491853131</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.1414139654000189</v>
+        <v>-0.1414139654118042</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6922431712128407</v>
+        <v>0.6922431711627749</v>
       </c>
       <c r="W21" t="n">
-        <v>-47.73882925068475</v>
+        <v>-47.73882112127422</v>
       </c>
       <c r="X21" t="n">
-        <v>0.4600749052008328</v>
+        <v>0.4600749012541614</v>
       </c>
       <c r="Y21" t="n">
         <v>260</v>
@@ -2236,40 +2236,40 @@
         <v>4973</v>
       </c>
       <c r="D22" t="n">
-        <v>0.857057576734591</v>
+        <v>0.8570575767345878</v>
       </c>
       <c r="E22" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>53.27214811212446</v>
+        <v>53.27214904705312</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01473197755920516</v>
+        <v>-0.01473220053476121</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01242683335709228</v>
+        <v>0.01242665459990214</v>
       </c>
       <c r="I22" t="n">
-        <v>53.27214761449191</v>
+        <v>53.27214888613017</v>
       </c>
       <c r="J22" t="n">
-        <v>4.976325436963331e-07</v>
+        <v>1.609229527657321e-07</v>
       </c>
       <c r="K22" t="n">
-        <v>0.500372635174984</v>
+        <v>0.500372607269432</v>
       </c>
       <c r="L22" t="n">
-        <v>-2.017075310524916e-14</v>
+        <v>-1.536684785379255e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>4.909057409191219e-14</v>
+        <v>7.628125462068203e-14</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6712618025675795</v>
+        <v>0.6712618024493975</v>
       </c>
       <c r="O22" t="n">
-        <v>2.294631066681205e-14</v>
+        <v>1.630751727779871e-14</v>
       </c>
       <c r="P22" t="n">
         <v>48.2183908045977</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3208549303406497</v>
+        <v>0.320854930247564</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.2084990248976491</v>
+        <v>-0.2084990250143166</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7444977297032345</v>
+        <v>0.7444977295671025</v>
       </c>
       <c r="W22" t="n">
-        <v>-53.27214811212446</v>
+        <v>-53.27214904705312</v>
       </c>
       <c r="X22" t="n">
-        <v>0.6533043284271179</v>
+        <v>0.6533043285987838</v>
       </c>
       <c r="Y22" t="n">
         <v>261</v>

--- a/publication/analyses/outputs/rmse_z/idpt_bin-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/idpt_bin-z_rmse-z.xlsx
@@ -576,40 +576,40 @@
         <v>130</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8897240474337662</v>
+        <v>0.889724047433764</v>
       </c>
       <c r="E2" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.80829213686104</v>
+        <v>-47.80828327451848</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="J2" t="n">
-        <v>3.241014244800461e-06</v>
+        <v>9.878717226318981e-09</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5364863640834298</v>
+        <v>0.536486874547818</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.305947687156057e-13</v>
+        <v>-1.552004587000663e-13</v>
       </c>
       <c r="M2" t="n">
-        <v>6.177561655066575e-14</v>
+        <v>7.416204729934772e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6797537069987838</v>
+        <v>0.6797537071972124</v>
       </c>
       <c r="O2" t="n">
-        <v>7.815374571432185e-15</v>
+        <v>5.505174860037845e-15</v>
       </c>
       <c r="P2" t="n">
         <v>48.2183908045977</v>
@@ -624,19 +624,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3040079871735362</v>
+        <v>0.3040079869831854</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8332973971127037</v>
+        <v>0.8332973970901962</v>
       </c>
       <c r="V2" t="n">
-        <v>1.075429952128085</v>
+        <v>1.07542995216631</v>
       </c>
       <c r="W2" t="n">
-        <v>47.80829213686104</v>
+        <v>47.80828327451848</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6469511861084859</v>
+        <v>0.6469511852995862</v>
       </c>
       <c r="Y2" t="n">
         <v>261</v>
@@ -659,40 +659,40 @@
         <v>390</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9247493629727603</v>
+        <v>0.9247493629727574</v>
       </c>
       <c r="E3" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-43.14639192785106</v>
+        <v>-43.14639198074369</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="I3" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.389586141783261e-05</v>
+        <v>-3.387724849191821e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.381203235204518</v>
+        <v>0.3812032323893026</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.309733608168703e-14</v>
+        <v>-1.098125237245819e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>2.337308810674418e-14</v>
+        <v>-8.119309600456079e-15</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6578093552447675</v>
+        <v>0.6578093552767241</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.131655901548422e-15</v>
+        <v>1.064292369378598e-14</v>
       </c>
       <c r="P3" t="n">
         <v>48.39768339768339</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2042907691664682</v>
+        <v>0.2042907690316982</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8051325747226458</v>
+        <v>0.8051325748753653</v>
       </c>
       <c r="V3" t="n">
-        <v>1.005312654395771</v>
+        <v>1.005312654534176</v>
       </c>
       <c r="W3" t="n">
-        <v>43.14639192785106</v>
+        <v>43.14639198074369</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5018445706051547</v>
+        <v>0.5018445706073811</v>
       </c>
       <c r="Y3" t="n">
         <v>259</v>
@@ -742,40 +742,40 @@
         <v>650</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9508040436138356</v>
+        <v>0.9508040436138345</v>
       </c>
       <c r="E4" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.68518843044414</v>
+        <v>-37.68518964723591</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="I4" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="J4" t="n">
-        <v>8.068471879762879e-09</v>
+        <v>4.472390670322976e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3700772141542975</v>
+        <v>0.3700772023005685</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.030448625134691e-13</v>
+        <v>-1.757291613602631e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>1.132855516504069e-14</v>
+        <v>7.345337620393564e-15</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6545488882878902</v>
+        <v>0.6545488876876088</v>
       </c>
       <c r="O4" t="n">
-        <v>6.586366190628263e-15</v>
+        <v>2.934221618338824e-15</v>
       </c>
       <c r="P4" t="n">
         <v>48.2183908045977</v>
@@ -790,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1603278745660885</v>
+        <v>0.1603278746405739</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7244842916176962</v>
+        <v>0.7244842908780296</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9325392852128277</v>
+        <v>0.9325392845327199</v>
       </c>
       <c r="W4" t="n">
-        <v>37.68518843044414</v>
+        <v>37.68518964723591</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4626809210139571</v>
+        <v>0.4626809211047783</v>
       </c>
       <c r="Y4" t="n">
         <v>261</v>
@@ -825,40 +825,40 @@
         <v>911</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9650235505958499</v>
+        <v>0.9650235505958492</v>
       </c>
       <c r="E5" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-32.98388032750527</v>
+        <v>-32.98388032540626</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="I5" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="J5" t="n">
-        <v>7.713892791263733e-09</v>
+        <v>6.963855966815623e-09</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2252291980413738</v>
+        <v>0.2252291979104597</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.593950599436788e-13</v>
+        <v>2.970442112801211e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>5.362589895342691e-14</v>
+        <v>-5.085842347518504e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6710740162466016</v>
+        <v>0.6710740161949977</v>
       </c>
       <c r="O5" t="n">
-        <v>7.828401613627259e-15</v>
+        <v>1.045549077286689e-14</v>
       </c>
       <c r="P5" t="n">
         <v>48.2183908045977</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.119025824922547</v>
+        <v>0.1190258250315254</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6590751217854093</v>
+        <v>0.6590751218803805</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8918099693207922</v>
+        <v>0.8918099694249778</v>
       </c>
       <c r="W5" t="n">
-        <v>32.98388032750527</v>
+        <v>32.98388032540626</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2906401944109478</v>
+        <v>0.2906401944109508</v>
       </c>
       <c r="Y5" t="n">
         <v>261</v>
@@ -908,40 +908,40 @@
         <v>1172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9755711938749331</v>
+        <v>0.9755711938749329</v>
       </c>
       <c r="E6" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>-28.40995575663889</v>
+        <v>-28.40995575754901</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="J6" t="n">
-        <v>6.864178783907429e-09</v>
+        <v>7.199320298490249e-09</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1877101640804041</v>
+        <v>0.1877101640296624</v>
       </c>
       <c r="L6" t="n">
-        <v>-5.896517841898053e-14</v>
+        <v>-3.112223122892327e-13</v>
       </c>
       <c r="M6" t="n">
-        <v>4.027004357902819e-15</v>
+        <v>-1.212057274470085e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6738127077900994</v>
+        <v>0.6738127078383446</v>
       </c>
       <c r="O6" t="n">
-        <v>-3.47189284559024e-15</v>
+        <v>4.301157131608149e-15</v>
       </c>
       <c r="P6" t="n">
         <v>48.2183908045977</v>
@@ -956,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03859801887617277</v>
+        <v>0.03859801894236498</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5663197280762615</v>
+        <v>0.5663197281720822</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8281098798626636</v>
+        <v>0.8281098798859092</v>
       </c>
       <c r="W6" t="n">
-        <v>28.40995575663889</v>
+        <v>28.40995575754901</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2373940968348825</v>
+        <v>0.237394096834721</v>
       </c>
       <c r="Y6" t="n">
         <v>261</v>
@@ -991,40 +991,40 @@
         <v>1433</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9818862258795612</v>
+        <v>0.981886225879561</v>
       </c>
       <c r="E7" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>-22.86769729878649</v>
+        <v>-22.8676973827836</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="J7" t="n">
-        <v>-5.070167585264052e-09</v>
+        <v>2.535171199916501e-08</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1977209984298197</v>
+        <v>0.1977209949298473</v>
       </c>
       <c r="L7" t="n">
-        <v>-3.371249639603148e-14</v>
+        <v>-1.00786131250033e-13</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.033496404676205e-15</v>
+        <v>6.86859573049454e-14</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6645151888228411</v>
+        <v>0.6645151886715045</v>
       </c>
       <c r="O7" t="n">
-        <v>-2.040087979349521e-15</v>
+        <v>-6.248726525572241e-16</v>
       </c>
       <c r="P7" t="n">
         <v>48.2183908045977</v>
@@ -1039,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02285812056495252</v>
+        <v>0.02285812053310464</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3995682316677942</v>
+        <v>0.3995682317385459</v>
       </c>
       <c r="V7" t="n">
-        <v>0.741333907719171</v>
+        <v>0.7413339077181496</v>
       </c>
       <c r="W7" t="n">
-        <v>22.86769729878649</v>
+        <v>22.8676973827836</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2627622477124358</v>
+        <v>0.2627622477106196</v>
       </c>
       <c r="Y7" t="n">
         <v>261</v>
@@ -1074,40 +1074,40 @@
         <v>1688.5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9836379317687309</v>
+        <v>0.9836379317687308</v>
       </c>
       <c r="E8" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-18.20528717079671</v>
+        <v>-18.2052871696405</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="I8" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="J8" t="n">
-        <v>-8.320078802334596e-05</v>
+        <v>-8.320116934964583e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2215735363164957</v>
+        <v>0.2215735365738269</v>
       </c>
       <c r="L8" t="n">
-        <v>-5.28641019847953e-15</v>
+        <v>8.838976772729268e-14</v>
       </c>
       <c r="M8" t="n">
-        <v>1.112985120732546e-13</v>
+        <v>3.020961258926036e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6326715904843756</v>
+        <v>0.6326715904486964</v>
       </c>
       <c r="O8" t="n">
-        <v>-2.955857780762017e-15</v>
+        <v>-2.257749542877718e-15</v>
       </c>
       <c r="P8" t="n">
         <v>48.604</v>
@@ -1122,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.005363395017258087</v>
+        <v>-0.005363395007575125</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2068211505001396</v>
+        <v>0.2068211504625538</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6506792072482996</v>
+        <v>0.6506792072057456</v>
       </c>
       <c r="W8" t="n">
-        <v>18.20528717079671</v>
+        <v>18.2052871696405</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2904873881144118</v>
+        <v>0.2904873881154339</v>
       </c>
       <c r="Y8" t="n">
         <v>250</v>
@@ -1163,34 +1163,34 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-13.53671476055764</v>
+        <v>-13.53671496404896</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="I9" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.00133272503802242</v>
+        <v>-0.001332655362292547</v>
       </c>
       <c r="K9" t="n">
-        <v>0.231834727691712</v>
+        <v>0.2318347193405517</v>
       </c>
       <c r="L9" t="n">
-        <v>1.428171554082675e-14</v>
+        <v>-2.547555320457738e-15</v>
       </c>
       <c r="M9" t="n">
-        <v>1.317016080929075e-14</v>
+        <v>-7.564655972332317e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6281765020902007</v>
+        <v>0.6281765020827674</v>
       </c>
       <c r="O9" t="n">
-        <v>4.981985643330563e-16</v>
+        <v>-1.904060523167109e-15</v>
       </c>
       <c r="P9" t="n">
         <v>46.24747474747475</v>
@@ -1205,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01227419719033881</v>
+        <v>0.01227419717051973</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2173317490628284</v>
+        <v>0.2173317490482409</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6466466316886486</v>
+        <v>0.6466466316633052</v>
       </c>
       <c r="W9" t="n">
-        <v>13.53671476055764</v>
+        <v>13.53671496404896</v>
       </c>
       <c r="X9" t="n">
-        <v>0.335785380572522</v>
+        <v>0.3357853836698609</v>
       </c>
       <c r="Y9" t="n">
         <v>198</v>
@@ -1246,34 +1246,34 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.415321277522416</v>
+        <v>-8.415321940683796</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.002955175279069088</v>
+        <v>-0.002954959622262433</v>
       </c>
       <c r="K10" t="n">
-        <v>0.165775715254761</v>
+        <v>0.1657757702112491</v>
       </c>
       <c r="L10" t="n">
-        <v>9.199939285332559e-14</v>
+        <v>-4.686157054267491e-14</v>
       </c>
       <c r="M10" t="n">
-        <v>3.766196913158799e-14</v>
+        <v>5.847028335360202e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5808419032288583</v>
+        <v>0.5808419032115346</v>
       </c>
       <c r="O10" t="n">
-        <v>-5.72798888930381e-16</v>
+        <v>1.026865593282794e-15</v>
       </c>
       <c r="P10" t="n">
         <v>45.90849673202614</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.02086118273560414</v>
+        <v>-0.02086118274459539</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0928296800390883</v>
+        <v>0.09282968000299231</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5833968778452545</v>
+        <v>0.5833968778140796</v>
       </c>
       <c r="W10" t="n">
-        <v>8.415321277522416</v>
+        <v>8.415321940683796</v>
       </c>
       <c r="X10" t="n">
-        <v>0.221514583683448</v>
+        <v>0.2215145910938466</v>
       </c>
       <c r="Y10" t="n">
         <v>153</v>
@@ -1329,34 +1329,34 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.162115870581817</v>
+        <v>-4.162115868839748</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="J11" t="n">
-        <v>5.083415836379294e-09</v>
+        <v>4.117188202118163e-09</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2572769413988149</v>
+        <v>0.2572769409420026</v>
       </c>
       <c r="L11" t="n">
-        <v>1.780408515380923e-14</v>
+        <v>6.525495342036746e-14</v>
       </c>
       <c r="M11" t="n">
-        <v>9.96776097166333e-15</v>
+        <v>-2.344229535903922e-14</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5119793205995871</v>
+        <v>0.5119793205677691</v>
       </c>
       <c r="O11" t="n">
-        <v>2.41186381211672e-16</v>
+        <v>-1.278670655947594e-15</v>
       </c>
       <c r="P11" t="n">
         <v>44.58620689655172</v>
@@ -1371,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.09781223954539053</v>
+        <v>0.09781223953145769</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0128784568677301</v>
+        <v>-0.01287845688458033</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5219803741880492</v>
+        <v>0.521980374156819</v>
       </c>
       <c r="W11" t="n">
-        <v>4.162115870581817</v>
+        <v>4.162115868839748</v>
       </c>
       <c r="X11" t="n">
-        <v>0.3256955643640265</v>
+        <v>0.325695564364048</v>
       </c>
       <c r="Y11" t="n">
         <v>87</v>
@@ -1406,40 +1406,40 @@
         <v>2381.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.959068783340761</v>
+        <v>0.9590687833407611</v>
       </c>
       <c r="E12" t="n">
         <v>1.900000000000006</v>
       </c>
       <c r="F12" t="n">
-        <v>2.704419632769613</v>
+        <v>2.704419735143571</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001824279837643241</v>
+        <v>0.001824256428774094</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0484980112397529</v>
+        <v>-0.04849803204074326</v>
       </c>
       <c r="I12" t="n">
         <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.204419632769613</v>
+        <v>1.204419735143571</v>
       </c>
       <c r="K12" t="n">
-        <v>1.507976546886507</v>
+        <v>1.507976619592592</v>
       </c>
       <c r="L12" t="n">
-        <v>9.12771460978781e-15</v>
+        <v>-1.304939062790184e-13</v>
       </c>
       <c r="M12" t="n">
-        <v>2.272114120780945e-15</v>
+        <v>1.587960198697806e-14</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6173413320975418</v>
+        <v>0.6173413320998227</v>
       </c>
       <c r="O12" t="n">
-        <v>-4.244468024913099e-16</v>
+        <v>3.364829782325474e-16</v>
       </c>
       <c r="P12" t="n">
         <v>48.31153846153846</v>
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.005436918729007555</v>
+        <v>0.005436918720933521</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.02665989297225807</v>
+        <v>-0.02665989294735161</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6194473322602679</v>
+        <v>0.6194473322603675</v>
       </c>
       <c r="W12" t="n">
-        <v>-2.704419632769613</v>
+        <v>-2.704419735143571</v>
       </c>
       <c r="X12" t="n">
-        <v>1.716338235456217</v>
+        <v>1.71633830554528</v>
       </c>
       <c r="Y12" t="n">
         <v>260</v>
@@ -1489,40 +1489,40 @@
         <v>2635</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9768869724195099</v>
+        <v>0.9768869724195101</v>
       </c>
       <c r="E13" t="n">
         <v>6.900000000000006</v>
       </c>
       <c r="F13" t="n">
-        <v>6.884258520676767</v>
+        <v>6.884258019228806</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.06685350028273639</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="I13" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006679488909398449</v>
+        <v>0.0006681427605054355</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1234919467524121</v>
+        <v>0.1234919706783301</v>
       </c>
       <c r="L13" t="n">
-        <v>1.596673198514497e-14</v>
+        <v>-1.871557340054343e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>8.946959232859814e-15</v>
+        <v>-6.234149498923511e-14</v>
       </c>
       <c r="N13" t="n">
-        <v>0.619937871423665</v>
+        <v>0.6199378714405751</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.410252931077501e-15</v>
+        <v>6.97597625189572e-16</v>
       </c>
       <c r="P13" t="n">
         <v>47.31983805668016</v>
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04600768446073163</v>
+        <v>0.04600768447283739</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.0257642078493416</v>
+        <v>-0.02576420781926519</v>
       </c>
       <c r="V13" t="n">
-        <v>0.62289824512104</v>
+        <v>0.6228982451349963</v>
       </c>
       <c r="W13" t="n">
-        <v>-6.884258520676767</v>
+        <v>-6.884258019228806</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1709958217190231</v>
+        <v>0.1709958201115923</v>
       </c>
       <c r="Y13" t="n">
         <v>247</v>
@@ -1572,40 +1572,40 @@
         <v>2887.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9890745249261049</v>
+        <v>0.989074524926105</v>
       </c>
       <c r="E14" t="n">
         <v>11.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>12.29422760535999</v>
+        <v>12.29422760462422</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.007359601509549474</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="I14" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="J14" t="n">
-        <v>7.13870581866018e-09</v>
+        <v>7.412178537196685e-09</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09016969350461093</v>
+        <v>0.09016969346172116</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.300183044776524e-13</v>
+        <v>-1.099675905891218e-13</v>
       </c>
       <c r="M14" t="n">
-        <v>-7.36955850564824e-14</v>
+        <v>7.896096836241782e-14</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6516245889899361</v>
+        <v>0.6516245890070769</v>
       </c>
       <c r="O14" t="n">
-        <v>-1.197039883236833e-15</v>
+        <v>-8.994742934971835e-16</v>
       </c>
       <c r="P14" t="n">
         <v>47.8953488372093</v>
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06300959655128305</v>
+        <v>0.06300959655966458</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.08238728285210194</v>
+        <v>-0.08238728281693783</v>
       </c>
       <c r="V14" t="n">
-        <v>0.661748996050448</v>
+        <v>0.6617489960565395</v>
       </c>
       <c r="W14" t="n">
-        <v>-12.29422760535999</v>
+        <v>-12.29422760462422</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1311699634638438</v>
+        <v>0.1311699634638085</v>
       </c>
       <c r="Y14" t="n">
         <v>258</v>
@@ -1661,34 +1661,34 @@
         <v>16.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>17.00709099745004</v>
+        <v>17.00709992219554</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.009826763377500766</v>
+        <v>-0.009828890673531106</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.05093245158564415</v>
+        <v>-0.05093415708189181</v>
       </c>
       <c r="I15" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="J15" t="n">
-        <v>3.231355817460516e-06</v>
+        <v>7.219379478647937e-09</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09003675255760256</v>
+        <v>0.09003678615513408</v>
       </c>
       <c r="L15" t="n">
-        <v>-2.191267601597377e-13</v>
+        <v>-1.543329108614751e-13</v>
       </c>
       <c r="M15" t="n">
-        <v>-2.551215943483463e-14</v>
+        <v>3.617965867297627e-14</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6573466751913932</v>
+        <v>0.6573466751135417</v>
       </c>
       <c r="O15" t="n">
-        <v>4.466095437278036e-15</v>
+        <v>-4.081452077118152e-16</v>
       </c>
       <c r="P15" t="n">
         <v>48.2183908045977</v>
@@ -1703,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1060516577892526</v>
+        <v>0.1060516577016156</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.1068985597245808</v>
+        <v>-0.1068985597710513</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6737276649855716</v>
+        <v>0.6737276649143059</v>
       </c>
       <c r="W15" t="n">
-        <v>-17.00709099745004</v>
+        <v>-17.00709992219554</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1292205833830788</v>
+        <v>0.1292205838583611</v>
       </c>
       <c r="Y15" t="n">
         <v>261</v>
@@ -1738,40 +1738,40 @@
         <v>3408</v>
       </c>
       <c r="D16" t="n">
-        <v>0.985995492082443</v>
+        <v>0.9859954920824432</v>
       </c>
       <c r="E16" t="n">
         <v>21.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>22.14348748705484</v>
+        <v>22.1434881414472</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01293975780441944</v>
+        <v>-0.01293991362958175</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.04698048052184928</v>
+        <v>-0.04698060593178344</v>
       </c>
       <c r="I16" t="n">
-        <v>22.14348712706708</v>
+        <v>22.14348801756694</v>
       </c>
       <c r="J16" t="n">
-        <v>3.599877586296752e-07</v>
+        <v>1.238802635123664e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1087860994309962</v>
+        <v>0.1087861131818331</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.166295667960822e-13</v>
+        <v>-8.259591393124158e-14</v>
       </c>
       <c r="M16" t="n">
-        <v>5.191675101743309e-14</v>
+        <v>1.633516651021274e-14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6675066101047721</v>
+        <v>0.6675066101783174</v>
       </c>
       <c r="O16" t="n">
-        <v>7.614439092023254e-16</v>
+        <v>5.405398351143731e-15</v>
       </c>
       <c r="P16" t="n">
         <v>48.2183908045977</v>
@@ -1786,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.173886994155225</v>
+        <v>0.1738869941689384</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.1008445921929303</v>
+        <v>-0.1008445922554063</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6927736876531423</v>
+        <v>0.6927736877273829</v>
       </c>
       <c r="W16" t="n">
-        <v>-22.14348748705484</v>
+        <v>-22.1434881414472</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1580359985901607</v>
+        <v>0.1580359986332586</v>
       </c>
       <c r="Y16" t="n">
         <v>261</v>
@@ -1827,34 +1827,34 @@
         <v>26.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>27.84518184159469</v>
+        <v>27.84518184054818</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0198440218284756</v>
+        <v>-0.01984402157891904</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.03645144604519435</v>
+        <v>-0.03645144584507054</v>
       </c>
       <c r="I17" t="n">
-        <v>27.84518183438559</v>
+        <v>27.84518183297603</v>
       </c>
       <c r="J17" t="n">
-        <v>7.209093297790243e-09</v>
+        <v>7.572145176048456e-09</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1322967894002044</v>
+        <v>0.1322967894001343</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.095207364560303e-13</v>
+        <v>-2.251992760002713e-13</v>
       </c>
       <c r="M17" t="n">
-        <v>-3.836031907193081e-15</v>
+        <v>4.260107991148455e-14</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6736723507408187</v>
+        <v>0.6736723506595077</v>
       </c>
       <c r="O17" t="n">
-        <v>5.475345591991163e-17</v>
+        <v>-1.744347535720924e-15</v>
       </c>
       <c r="P17" t="n">
         <v>48.2183908045977</v>
@@ -1869,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2280479216035083</v>
+        <v>0.2280479215497979</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.112465303214166</v>
+        <v>-0.1124653032498055</v>
       </c>
       <c r="V17" t="n">
-        <v>0.7024222201133327</v>
+        <v>0.70242222002856</v>
       </c>
       <c r="W17" t="n">
-        <v>-27.84518184159469</v>
+        <v>-27.84518184054818</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1840610489246619</v>
+        <v>0.1840610489245026</v>
       </c>
       <c r="Y17" t="n">
         <v>261</v>
@@ -1904,40 +1904,40 @@
         <v>3930</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9715943216452469</v>
+        <v>0.9715943216452473</v>
       </c>
       <c r="E18" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>32.63277173036757</v>
+        <v>32.63277172920732</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01700462157504085</v>
+        <v>-0.01700462130075263</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.02774809075181531</v>
+        <v>-0.02774809052601302</v>
       </c>
       <c r="I18" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="J18" t="n">
-        <v>7.22280286665779e-09</v>
+        <v>7.661709846915618e-09</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1594709461189752</v>
+        <v>0.1594709461336871</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.924964817175597e-13</v>
+        <v>-2.385325068585312e-13</v>
       </c>
       <c r="M18" t="n">
-        <v>1.682673795957383e-14</v>
+        <v>8.512374500469487e-14</v>
       </c>
       <c r="N18" t="n">
-        <v>0.66825089498201</v>
+        <v>0.668250894906229</v>
       </c>
       <c r="O18" t="n">
-        <v>3.403141965760723e-15</v>
+        <v>-1.003039711740128e-14</v>
       </c>
       <c r="P18" t="n">
         <v>48.2183908045977</v>
@@ -1952,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2508049797232352</v>
+        <v>0.2508049797438845</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.07628867652306351</v>
+        <v>-0.07628867666606069</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6960712467801612</v>
+        <v>0.6960712467054312</v>
       </c>
       <c r="W18" t="n">
-        <v>-32.63277173036757</v>
+        <v>-32.63277172920732</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2128104600968002</v>
+        <v>0.21281046009678</v>
       </c>
       <c r="Y18" t="n">
         <v>261</v>
@@ -1993,34 +1993,34 @@
         <v>36.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>37.6929178847024</v>
+        <v>37.69291670924981</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="I19" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="J19" t="n">
-        <v>3.058522163593668e-06</v>
+        <v>3.479483030218591e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2103545396833743</v>
+        <v>0.2103545554553536</v>
       </c>
       <c r="L19" t="n">
-        <v>-2.243235397351575e-13</v>
+        <v>-8.613799328988283e-14</v>
       </c>
       <c r="M19" t="n">
-        <v>5.52650730627729e-14</v>
+        <v>-2.213002025138842e-16</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6535852258355977</v>
+        <v>0.6535852261118514</v>
       </c>
       <c r="O19" t="n">
-        <v>3.619789653204937e-15</v>
+        <v>-3.921458730322314e-15</v>
       </c>
       <c r="P19" t="n">
         <v>48.2183908045977</v>
@@ -2035,19 +2035,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.29239267362481</v>
+        <v>0.2923926735840543</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.0919974960269931</v>
+        <v>-0.09199749583626064</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6933752744054632</v>
+        <v>0.6933752746903646</v>
       </c>
       <c r="W19" t="n">
-        <v>-37.6929178847024</v>
+        <v>-37.69291670924981</v>
       </c>
       <c r="X19" t="n">
-        <v>0.2787726332044629</v>
+        <v>0.2787726330936115</v>
       </c>
       <c r="Y19" t="n">
         <v>261</v>
@@ -2070,40 +2070,40 @@
         <v>4452</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9409799581662516</v>
+        <v>0.9409799581662515</v>
       </c>
       <c r="E20" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>42.43896636380737</v>
+        <v>42.43896635539461</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="I20" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="J20" t="n">
-        <v>5.941381212898355e-09</v>
+        <v>8.982527970052599e-09</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2376051613110004</v>
+        <v>0.2376051615399482</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.182039778956584e-13</v>
+        <v>-2.062470032988684e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>3.991443191290304e-14</v>
+        <v>2.082199887180131e-14</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6513122265198737</v>
+        <v>0.6513122264982271</v>
       </c>
       <c r="O20" t="n">
-        <v>-2.012013374129115e-15</v>
+        <v>-1.141105090367603e-14</v>
       </c>
       <c r="P20" t="n">
         <v>48.2183908045977</v>
@@ -2118,19 +2118,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2352453161768321</v>
+        <v>0.2352453161501331</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.2342059834987727</v>
+        <v>-0.2342059837289697</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7094097193175042</v>
+        <v>0.7094097193672451</v>
       </c>
       <c r="W20" t="n">
-        <v>-42.43896636380737</v>
+        <v>-42.43896635539461</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3137071489490161</v>
+        <v>0.313707148948428</v>
       </c>
       <c r="Y20" t="n">
         <v>261</v>
@@ -2153,40 +2153,40 @@
         <v>4712.5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9087046057688193</v>
+        <v>0.9087046057688207</v>
       </c>
       <c r="E21" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>47.73882112127422</v>
+        <v>47.73882924659712</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="I21" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0002335118465311648</v>
+        <v>-0.0002364308335301706</v>
       </c>
       <c r="K21" t="n">
-        <v>0.347097546808841</v>
+        <v>0.3470972079529354</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.751388860334513e-14</v>
+        <v>-3.391603237573166e-14</v>
       </c>
       <c r="M21" t="n">
-        <v>1.405926657145511e-16</v>
+        <v>-1.09597160406867e-14</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6386075248678359</v>
+        <v>0.6386075248872595</v>
       </c>
       <c r="O21" t="n">
-        <v>-9.756725342177001e-15</v>
+        <v>1.424928551220826e-15</v>
       </c>
       <c r="P21" t="n">
         <v>48.15384615384615</v>
@@ -2201,19 +2201,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3125266491853131</v>
+        <v>0.3125266492448628</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.1414139654118042</v>
+        <v>-0.141413965345528</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6922431711627749</v>
+        <v>0.69224317122009</v>
       </c>
       <c r="W21" t="n">
-        <v>-47.73882112127422</v>
+        <v>-47.73882924659712</v>
       </c>
       <c r="X21" t="n">
-        <v>0.4600749012541614</v>
+        <v>0.4600749051988202</v>
       </c>
       <c r="Y21" t="n">
         <v>260</v>
@@ -2236,40 +2236,40 @@
         <v>4973</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8570575767345878</v>
+        <v>0.8570575767345859</v>
       </c>
       <c r="E22" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>53.27214904705312</v>
+        <v>53.27214946931355</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="I22" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="J22" t="n">
-        <v>1.609229527657321e-07</v>
+        <v>8.338613061855886e-09</v>
       </c>
       <c r="K22" t="n">
-        <v>0.500372607269432</v>
+        <v>0.5003725945525697</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.536684785379255e-13</v>
+        <v>-2.627119334123087e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>7.628125462068203e-14</v>
+        <v>9.967548285260146e-14</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6712618024493975</v>
+        <v>0.6712618025213614</v>
       </c>
       <c r="O22" t="n">
-        <v>1.630751727779871e-14</v>
+        <v>-1.239025910393929e-14</v>
       </c>
       <c r="P22" t="n">
         <v>48.2183908045977</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.320854930247564</v>
+        <v>0.3208549303013359</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.2084990250143166</v>
+        <v>-0.2084990249710548</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7444977295671025</v>
+        <v>0.7444977296850698</v>
       </c>
       <c r="W22" t="n">
-        <v>-53.27214904705312</v>
+        <v>-53.27214946931355</v>
       </c>
       <c r="X22" t="n">
-        <v>0.6533043285987838</v>
+        <v>0.6533043286768397</v>
       </c>
       <c r="Y22" t="n">
         <v>261</v>

--- a/publication/analyses/outputs/rmse_z/idpt_bin-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/idpt_bin-z_rmse-z.xlsx
@@ -576,40 +576,40 @@
         <v>130</v>
       </c>
       <c r="D2" t="n">
-        <v>0.889724047433764</v>
+        <v>0.8897240474337672</v>
       </c>
       <c r="E2" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.80828327451848</v>
+        <v>-47.80828327261331</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="J2" t="n">
-        <v>9.878717226318981e-09</v>
+        <v>9.198556676682999e-09</v>
       </c>
       <c r="K2" t="n">
-        <v>0.536486874547818</v>
+        <v>0.5364868746564884</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.552004587000663e-13</v>
+        <v>-1.850956595317353e-13</v>
       </c>
       <c r="M2" t="n">
-        <v>7.416204729934772e-14</v>
+        <v>6.566405571689361e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6797537071972124</v>
+        <v>0.6797537071473705</v>
       </c>
       <c r="O2" t="n">
-        <v>5.505174860037845e-15</v>
+        <v>-9.573015007352163e-16</v>
       </c>
       <c r="P2" t="n">
         <v>48.2183908045977</v>
@@ -624,19 +624,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3040079869831854</v>
+        <v>0.3040079870039519</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8332973970901962</v>
+        <v>0.833297397059975</v>
       </c>
       <c r="V2" t="n">
-        <v>1.07542995216631</v>
+        <v>1.075429952108111</v>
       </c>
       <c r="W2" t="n">
-        <v>47.80828327451848</v>
+        <v>47.80828327261331</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6469511852995862</v>
+        <v>0.6469511852995098</v>
       </c>
       <c r="Y2" t="n">
         <v>261</v>
@@ -659,40 +659,40 @@
         <v>390</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9247493629727574</v>
+        <v>0.9247493629727606</v>
       </c>
       <c r="E3" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-43.14639198074369</v>
+        <v>-43.14639217614069</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="I3" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.387724849191821e-05</v>
+        <v>-3.380763740169751e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3812032323893026</v>
+        <v>0.381203221918489</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.098125237245819e-13</v>
+        <v>5.948255616075432e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>-8.119309600456079e-15</v>
+        <v>6.603619410196586e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6578093552767241</v>
+        <v>0.6578093553667028</v>
       </c>
       <c r="O3" t="n">
-        <v>1.064292369378598e-14</v>
+        <v>-1.177093600625745e-15</v>
       </c>
       <c r="P3" t="n">
         <v>48.39768339768339</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2042907690316982</v>
+        <v>0.2042907690652706</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8051325748753653</v>
+        <v>0.8051325747858091</v>
       </c>
       <c r="V3" t="n">
-        <v>1.005312654534176</v>
+        <v>1.005312654496538</v>
       </c>
       <c r="W3" t="n">
-        <v>43.14639198074369</v>
+        <v>43.14639217614069</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5018445706073811</v>
+        <v>0.5018445706151744</v>
       </c>
       <c r="Y3" t="n">
         <v>259</v>
@@ -742,40 +742,40 @@
         <v>650</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9508040436138345</v>
+        <v>0.9508040436138364</v>
       </c>
       <c r="E4" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.68518964723591</v>
+        <v>-37.68518987933813</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="I4" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="J4" t="n">
-        <v>4.472390670322976e-07</v>
+        <v>5.344312329605703e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3700772023005685</v>
+        <v>0.3700771998579835</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.757291613602631e-13</v>
+        <v>-2.184450985759176e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>7.345337620393564e-15</v>
+        <v>1.619734572094893e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6545488876876088</v>
+        <v>0.6545488880028955</v>
       </c>
       <c r="O4" t="n">
-        <v>2.934221618338824e-15</v>
+        <v>3.455090619738634e-15</v>
       </c>
       <c r="P4" t="n">
         <v>48.2183908045977</v>
@@ -790,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1603278746405739</v>
+        <v>0.160327874426162</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7244842908780296</v>
+        <v>0.7244842911805277</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9325392845327199</v>
+        <v>0.9325392848656003</v>
       </c>
       <c r="W4" t="n">
-        <v>37.68518964723591</v>
+        <v>37.68518987933813</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4626809211047783</v>
+        <v>0.4626809211229283</v>
       </c>
       <c r="Y4" t="n">
         <v>261</v>
@@ -825,40 +825,40 @@
         <v>911</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9650235505958492</v>
+        <v>0.9650235505958501</v>
       </c>
       <c r="E5" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-32.98388032540626</v>
+        <v>-32.98388193066725</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="I5" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="J5" t="n">
-        <v>6.963855966815623e-09</v>
+        <v>5.889850066631744e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2252291979104597</v>
+        <v>0.2252292967573779</v>
       </c>
       <c r="L5" t="n">
-        <v>2.970442112801211e-14</v>
+        <v>-5.815548128205564e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>-5.085842347518504e-14</v>
+        <v>1.195212511337841e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6710740161949977</v>
+        <v>0.6710740162167472</v>
       </c>
       <c r="O5" t="n">
-        <v>1.045549077286689e-14</v>
+        <v>-5.091406755541829e-15</v>
       </c>
       <c r="P5" t="n">
         <v>48.2183908045977</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1190258250315254</v>
+        <v>0.1190258247902159</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6590751218803805</v>
+        <v>0.6590751219023794</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8918099694249778</v>
+        <v>0.8918099693984134</v>
       </c>
       <c r="W5" t="n">
-        <v>32.98388032540626</v>
+        <v>32.98388193066725</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2906401944109508</v>
+        <v>0.2906401944767278</v>
       </c>
       <c r="Y5" t="n">
         <v>261</v>
@@ -908,40 +908,40 @@
         <v>1172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9755711938749329</v>
+        <v>0.9755711938749337</v>
       </c>
       <c r="E6" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>-28.40995575754901</v>
+        <v>-28.40996065872825</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="J6" t="n">
-        <v>7.199320298490249e-09</v>
+        <v>1.781680212955754e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1877101640296624</v>
+        <v>0.1877098927042105</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.112223122892327e-13</v>
+        <v>-9.098043731759655e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.212057274470085e-14</v>
+        <v>-1.608759953690553e-15</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6738127078383446</v>
+        <v>0.6738127078947919</v>
       </c>
       <c r="O6" t="n">
-        <v>4.301157131608149e-15</v>
+        <v>-3.649698678652814e-16</v>
       </c>
       <c r="P6" t="n">
         <v>48.2183908045977</v>
@@ -956,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03859801894236498</v>
+        <v>0.03859801893137737</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5663197281720822</v>
+        <v>0.5663197283683724</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8281098798859092</v>
+        <v>0.8281098800491807</v>
       </c>
       <c r="W6" t="n">
-        <v>28.40995575754901</v>
+        <v>28.40996065872825</v>
       </c>
       <c r="X6" t="n">
-        <v>0.237394096834721</v>
+        <v>0.2373940968013092</v>
       </c>
       <c r="Y6" t="n">
         <v>261</v>
@@ -991,40 +991,40 @@
         <v>1433</v>
       </c>
       <c r="D7" t="n">
-        <v>0.981886225879561</v>
+        <v>0.9818862258795614</v>
       </c>
       <c r="E7" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>-22.8676973827836</v>
+        <v>-22.86769732834983</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="J7" t="n">
-        <v>2.535171199916501e-08</v>
+        <v>5.654811702227036e-09</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1977209949298473</v>
+        <v>0.1977209971908341</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.00786131250033e-13</v>
+        <v>-3.867974480513408e-13</v>
       </c>
       <c r="M7" t="n">
-        <v>6.86859573049454e-14</v>
+        <v>-3.340186790417994e-14</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6645151886715045</v>
+        <v>0.6645151887552616</v>
       </c>
       <c r="O7" t="n">
-        <v>-6.248726525572241e-16</v>
+        <v>3.783478426256113e-15</v>
       </c>
       <c r="P7" t="n">
         <v>48.2183908045977</v>
@@ -1039,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02285812053310464</v>
+        <v>0.02285812050566901</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3995682317385459</v>
+        <v>0.3995682316354457</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7413339077181496</v>
+        <v>0.7413339076799433</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8676973827836</v>
+        <v>22.86769732834983</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2627622477106196</v>
+        <v>0.2627622477117229</v>
       </c>
       <c r="Y7" t="n">
         <v>261</v>
@@ -1074,40 +1074,40 @@
         <v>1688.5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9836379317687308</v>
+        <v>0.9836379317687313</v>
       </c>
       <c r="E8" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-18.2052871696405</v>
+        <v>-18.20528716733346</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="I8" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="J8" t="n">
-        <v>-8.320116934964583e-05</v>
+        <v>-8.320194615353117e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2215735365738269</v>
+        <v>0.2215735370834433</v>
       </c>
       <c r="L8" t="n">
-        <v>8.838976772729268e-14</v>
+        <v>-8.074299562288445e-14</v>
       </c>
       <c r="M8" t="n">
-        <v>3.020961258926036e-14</v>
+        <v>-1.009494848824843e-13</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6326715904486964</v>
+        <v>0.6326715904147658</v>
       </c>
       <c r="O8" t="n">
-        <v>-2.257749542877718e-15</v>
+        <v>2.553290912032935e-15</v>
       </c>
       <c r="P8" t="n">
         <v>48.604</v>
@@ -1122,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.005363395007575125</v>
+        <v>-0.005363395147564235</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2068211504625538</v>
+        <v>0.2068211504054673</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6506792072057456</v>
+        <v>0.650679207147937</v>
       </c>
       <c r="W8" t="n">
-        <v>18.2052871696405</v>
+        <v>18.20528716733346</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2904873881154339</v>
+        <v>0.2904873881174982</v>
       </c>
       <c r="Y8" t="n">
         <v>250</v>
@@ -1157,40 +1157,40 @@
         <v>1912.5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9817575013804291</v>
+        <v>0.9817575013804292</v>
       </c>
       <c r="E9" t="n">
         <v>-13.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-13.53671496404896</v>
+        <v>-13.53671500358353</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="I9" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.001332655362292547</v>
+        <v>-0.001332641850779803</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2318347193405517</v>
+        <v>0.2318347177121726</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.547555320457738e-15</v>
+        <v>-2.02036759937058e-14</v>
       </c>
       <c r="M9" t="n">
-        <v>-7.564655972332317e-14</v>
+        <v>-1.167349045710415e-13</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6281765020827674</v>
+        <v>0.628176502114837</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.904060523167109e-15</v>
+        <v>2.803593496528173e-15</v>
       </c>
       <c r="P9" t="n">
         <v>46.24747474747475</v>
@@ -1205,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01227419717051973</v>
+        <v>0.01227419717171771</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2173317490482409</v>
+        <v>0.2173317491149969</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6466466316633052</v>
+        <v>0.6466466317105748</v>
       </c>
       <c r="W9" t="n">
-        <v>13.53671496404896</v>
+        <v>13.53671500358353</v>
       </c>
       <c r="X9" t="n">
-        <v>0.3357853836698609</v>
+        <v>0.3357853842705651</v>
       </c>
       <c r="Y9" t="n">
         <v>198</v>
@@ -1240,40 +1240,40 @@
         <v>2088</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9779315602172314</v>
+        <v>0.9779315602172315</v>
       </c>
       <c r="E10" t="n">
         <v>-8.099999999999994</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.415321940683796</v>
+        <v>-8.41532126971936</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.002954959622262433</v>
+        <v>-0.002955177808273592</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1657757702112491</v>
+        <v>0.1657757146075841</v>
       </c>
       <c r="L10" t="n">
-        <v>-4.686157054267491e-14</v>
+        <v>-3.394960420268796e-14</v>
       </c>
       <c r="M10" t="n">
-        <v>5.847028335360202e-14</v>
+        <v>8.898185837395685e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5808419032115346</v>
+        <v>0.580841903245192</v>
       </c>
       <c r="O10" t="n">
-        <v>1.026865593282794e-15</v>
+        <v>1.64147925462757e-15</v>
       </c>
       <c r="P10" t="n">
         <v>45.90849673202614</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.02086118274459539</v>
+        <v>-0.02086118270888736</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09282968000299231</v>
+        <v>0.09282968003918253</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5833968778140796</v>
+        <v>0.5833968778432279</v>
       </c>
       <c r="W10" t="n">
-        <v>8.415321940683796</v>
+        <v>8.41532126971936</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2215145910938466</v>
+        <v>0.2215145835961699</v>
       </c>
       <c r="Y10" t="n">
         <v>153</v>
@@ -1323,40 +1323,40 @@
         <v>2208</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9521832822613843</v>
+        <v>0.9521832822613845</v>
       </c>
       <c r="E11" t="n">
         <v>-3.099999999999994</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.162115868839748</v>
+        <v>-4.162115870665648</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="J11" t="n">
-        <v>4.117188202118163e-09</v>
+        <v>5.124618642632361e-09</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2572769409420026</v>
+        <v>0.2572769414206563</v>
       </c>
       <c r="L11" t="n">
-        <v>6.525495342036746e-14</v>
+        <v>4.41042477124439e-14</v>
       </c>
       <c r="M11" t="n">
-        <v>-2.344229535903922e-14</v>
+        <v>4.810966440042345e-14</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5119793205677691</v>
+        <v>0.5119793205967355</v>
       </c>
       <c r="O11" t="n">
-        <v>-1.278670655947594e-15</v>
+        <v>1.059228136236528e-16</v>
       </c>
       <c r="P11" t="n">
         <v>44.58620689655172</v>
@@ -1371,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.09781223953145769</v>
+        <v>0.09781223957276522</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01287845688458033</v>
+        <v>-0.01287845689298058</v>
       </c>
       <c r="V11" t="n">
-        <v>0.521980374156819</v>
+        <v>0.5219803741913056</v>
       </c>
       <c r="W11" t="n">
-        <v>4.162115868839748</v>
+        <v>4.162115870665648</v>
       </c>
       <c r="X11" t="n">
-        <v>0.325695564364048</v>
+        <v>0.3256955643639229</v>
       </c>
       <c r="Y11" t="n">
         <v>87</v>
@@ -1406,40 +1406,40 @@
         <v>2381.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9590687833407611</v>
+        <v>0.9590687833407612</v>
       </c>
       <c r="E12" t="n">
         <v>1.900000000000006</v>
       </c>
       <c r="F12" t="n">
-        <v>2.704419735143571</v>
+        <v>2.704419778651481</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001824256428774094</v>
+        <v>0.001824246026339874</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04849803204074326</v>
+        <v>-0.048498040166522</v>
       </c>
       <c r="I12" t="n">
         <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.204419735143571</v>
+        <v>1.204419778651481</v>
       </c>
       <c r="K12" t="n">
-        <v>1.507976619592592</v>
+        <v>1.50797665033181</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.304939062790184e-13</v>
+        <v>-4.793342539128203e-14</v>
       </c>
       <c r="M12" t="n">
-        <v>1.587960198697806e-14</v>
+        <v>-4.184259776269965e-14</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6173413320998227</v>
+        <v>0.6173413321253434</v>
       </c>
       <c r="O12" t="n">
-        <v>3.364829782325474e-16</v>
+        <v>5.696298134038304e-16</v>
       </c>
       <c r="P12" t="n">
         <v>48.31153846153846</v>
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.005436918720933521</v>
+        <v>0.005436918736617659</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.02665989294735161</v>
+        <v>-0.02665989295517538</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6194473322603675</v>
+        <v>0.619447332285569</v>
       </c>
       <c r="W12" t="n">
-        <v>-2.704419735143571</v>
+        <v>-2.704419778651481</v>
       </c>
       <c r="X12" t="n">
-        <v>1.71633830554528</v>
+        <v>1.716338335267458</v>
       </c>
       <c r="Y12" t="n">
         <v>260</v>
@@ -1495,34 +1495,34 @@
         <v>6.900000000000006</v>
       </c>
       <c r="F13" t="n">
-        <v>6.884258019228806</v>
+        <v>6.884258521086519</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="I13" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006681427605054355</v>
+        <v>0.0006679487305041197</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1234919706783301</v>
+        <v>0.1234919467323719</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.871557340054343e-13</v>
+        <v>4.309261000216627e-14</v>
       </c>
       <c r="M13" t="n">
-        <v>-6.234149498923511e-14</v>
+        <v>2.461683578528176e-14</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6199378714405751</v>
+        <v>0.6199378714387226</v>
       </c>
       <c r="O13" t="n">
-        <v>6.97597625189572e-16</v>
+        <v>-3.117164646062939e-16</v>
       </c>
       <c r="P13" t="n">
         <v>47.31983805668016</v>
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04600768447283739</v>
+        <v>0.04600768447945002</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.02576420781926519</v>
+        <v>-0.02576420781151751</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6228982451349963</v>
+        <v>0.6228982451337914</v>
       </c>
       <c r="W13" t="n">
-        <v>-6.884258019228806</v>
+        <v>-6.884258521086519</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1709958201115923</v>
+        <v>0.1709958217203011</v>
       </c>
       <c r="Y13" t="n">
         <v>247</v>
@@ -1572,40 +1572,40 @@
         <v>2887.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.989074524926105</v>
+        <v>0.9890745249261051</v>
       </c>
       <c r="E14" t="n">
         <v>11.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>12.29422760462422</v>
+        <v>12.2942266329394</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="I14" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="J14" t="n">
-        <v>7.412178537196685e-09</v>
+        <v>3.638516680388299e-07</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09016969346172116</v>
+        <v>0.09016963564522955</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.099675905891218e-13</v>
+        <v>-1.452462181535915e-13</v>
       </c>
       <c r="M14" t="n">
-        <v>7.896096836241782e-14</v>
+        <v>-1.40752907821685e-14</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6516245890070769</v>
+        <v>0.6516245889998207</v>
       </c>
       <c r="O14" t="n">
-        <v>-8.994742934971835e-16</v>
+        <v>-2.326950002194005e-15</v>
       </c>
       <c r="P14" t="n">
         <v>47.8953488372093</v>
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06300959655966458</v>
+        <v>0.06300959653419358</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.08238728281693783</v>
+        <v>-0.08238728282370826</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6617489960565395</v>
+        <v>0.6617489960495258</v>
       </c>
       <c r="W14" t="n">
-        <v>-12.29422760462422</v>
+        <v>-12.2942266329394</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1311699634638085</v>
+        <v>0.1311699633857819</v>
       </c>
       <c r="Y14" t="n">
         <v>258</v>
@@ -1655,40 +1655,40 @@
         <v>3147</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9891882420972179</v>
+        <v>0.9891882420972181</v>
       </c>
       <c r="E15" t="n">
         <v>16.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>17.00709992219554</v>
+        <v>17.00709992086329</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.009828890673531106</v>
+        <v>-0.009828890355805593</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.05093415708189181</v>
+        <v>-0.05093415682757337</v>
       </c>
       <c r="I15" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="J15" t="n">
-        <v>7.219379478647937e-09</v>
+        <v>7.700493982142133e-09</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09003678615513408</v>
+        <v>0.0900367861498233</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.543329108614751e-13</v>
+        <v>-2.512224145187576e-13</v>
       </c>
       <c r="M15" t="n">
-        <v>3.617965867297627e-14</v>
+        <v>1.236048300749341e-14</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6573466751135417</v>
+        <v>0.657346675141404</v>
       </c>
       <c r="O15" t="n">
-        <v>-4.081452077118152e-16</v>
+        <v>-3.131807286897592e-16</v>
       </c>
       <c r="P15" t="n">
         <v>48.2183908045977</v>
@@ -1703,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1060516577016156</v>
+        <v>0.1060516577523534</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.1068985597710513</v>
+        <v>-0.1068985597761903</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6737276649143059</v>
+        <v>0.6737276649486269</v>
       </c>
       <c r="W15" t="n">
-        <v>-17.00709992219554</v>
+        <v>-17.00709992086329</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1292205838583611</v>
+        <v>0.1292205838582663</v>
       </c>
       <c r="Y15" t="n">
         <v>261</v>
@@ -1738,40 +1738,40 @@
         <v>3408</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9859954920824432</v>
+        <v>0.9859954920824434</v>
       </c>
       <c r="E16" t="n">
         <v>21.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>22.1434881414472</v>
+        <v>22.14348771226527</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01293991362958175</v>
+        <v>-0.01293981147098387</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.04698060593178344</v>
+        <v>-0.04698052362038095</v>
       </c>
       <c r="I16" t="n">
-        <v>22.14348801756694</v>
+        <v>22.14348743371205</v>
       </c>
       <c r="J16" t="n">
-        <v>1.238802635123664e-07</v>
+        <v>2.785532168096215e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1087861131818331</v>
+        <v>0.1087861042051163</v>
       </c>
       <c r="L16" t="n">
-        <v>-8.259591393124158e-14</v>
+        <v>-6.397689423782903e-14</v>
       </c>
       <c r="M16" t="n">
-        <v>1.633516651021274e-14</v>
+        <v>-5.578126296330264e-14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6675066101783174</v>
+        <v>0.6675066100847352</v>
       </c>
       <c r="O16" t="n">
-        <v>5.405398351143731e-15</v>
+        <v>7.198371315792801e-16</v>
       </c>
       <c r="P16" t="n">
         <v>48.2183908045977</v>
@@ -1786,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1738869941689384</v>
+        <v>0.1738869941786294</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.1008445922554063</v>
+        <v>-0.1008445922124129</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6927736877273829</v>
+        <v>0.6927736876294766</v>
       </c>
       <c r="W16" t="n">
-        <v>-22.1434881414472</v>
+        <v>-22.14348771226527</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1580359986332586</v>
+        <v>0.1580359986045086</v>
       </c>
       <c r="Y16" t="n">
         <v>261</v>
@@ -1821,40 +1821,40 @@
         <v>3669</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9802429334610533</v>
+        <v>0.9802429334610536</v>
       </c>
       <c r="E17" t="n">
         <v>26.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>27.84518184054818</v>
+        <v>27.84518184266901</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01984402157891904</v>
+        <v>-0.01984402208628273</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.03645144584507054</v>
+        <v>-0.03645144624804719</v>
       </c>
       <c r="I17" t="n">
-        <v>27.84518183297603</v>
+        <v>27.8451818358611</v>
       </c>
       <c r="J17" t="n">
-        <v>7.572145176048456e-09</v>
+        <v>6.807911108472656e-09</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1322967894001343</v>
+        <v>0.132296789404027</v>
       </c>
       <c r="L17" t="n">
-        <v>-2.251992760002713e-13</v>
+        <v>2.079551941460479e-14</v>
       </c>
       <c r="M17" t="n">
-        <v>4.260107991148455e-14</v>
+        <v>1.747688041540947e-14</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6736723506595077</v>
+        <v>0.6736723506533002</v>
       </c>
       <c r="O17" t="n">
-        <v>-1.744347535720924e-15</v>
+        <v>-2.042321186582963e-15</v>
       </c>
       <c r="P17" t="n">
         <v>48.2183908045977</v>
@@ -1869,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2280479215497979</v>
+        <v>0.2280479215127524</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.1124653032498055</v>
+        <v>-0.1124653032144691</v>
       </c>
       <c r="V17" t="n">
-        <v>0.70242222002856</v>
+        <v>0.7024222200239304</v>
       </c>
       <c r="W17" t="n">
-        <v>-27.84518184054818</v>
+        <v>-27.84518184266901</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1840610489245026</v>
+        <v>0.1840610489245948</v>
       </c>
       <c r="Y17" t="n">
         <v>261</v>
@@ -1904,40 +1904,40 @@
         <v>3930</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9715943216452473</v>
+        <v>0.9715943216452481</v>
       </c>
       <c r="E18" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>32.63277172920732</v>
+        <v>32.63276834658344</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01700462130075263</v>
+        <v>-0.01700381395843612</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.02774809052601302</v>
+        <v>-0.02774744443859951</v>
       </c>
       <c r="I18" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="J18" t="n">
-        <v>7.661709846915618e-09</v>
+        <v>1.230655849546978e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1594709461336871</v>
+        <v>0.1594709826936961</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.385325068585312e-13</v>
+        <v>-1.310522837546568e-13</v>
       </c>
       <c r="M18" t="n">
-        <v>8.512374500469487e-14</v>
+        <v>8.115342157324082e-14</v>
       </c>
       <c r="N18" t="n">
-        <v>0.668250894906229</v>
+        <v>0.6682508947907004</v>
       </c>
       <c r="O18" t="n">
-        <v>-1.003039711740128e-14</v>
+        <v>2.681071626948001e-15</v>
       </c>
       <c r="P18" t="n">
         <v>48.2183908045977</v>
@@ -1952,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2508049797438845</v>
+        <v>0.2508049798436081</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.07628867666606069</v>
+        <v>-0.07628867658187213</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6960712467054312</v>
+        <v>0.6960712466149129</v>
       </c>
       <c r="W18" t="n">
-        <v>-32.63277172920732</v>
+        <v>-32.63276834658344</v>
       </c>
       <c r="X18" t="n">
-        <v>0.21281046009678</v>
+        <v>0.2128104598938638</v>
       </c>
       <c r="Y18" t="n">
         <v>261</v>
@@ -1987,40 +1987,40 @@
         <v>4191</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9586929505399638</v>
+        <v>0.9586929505399648</v>
       </c>
       <c r="E19" t="n">
         <v>36.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>37.69291670924981</v>
+        <v>37.69292632465201</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="I19" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="J19" t="n">
-        <v>3.479483030218591e-06</v>
+        <v>6.767635533608188e-09</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2103545554553536</v>
+        <v>0.2103544264420156</v>
       </c>
       <c r="L19" t="n">
-        <v>-8.613799328988283e-14</v>
+        <v>-2.793703965482627e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>-2.213002025138842e-16</v>
+        <v>-5.387771965479783e-14</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6535852261118514</v>
+        <v>0.6535852257930828</v>
       </c>
       <c r="O19" t="n">
-        <v>-3.921458730322314e-15</v>
+        <v>2.01265143333867e-15</v>
       </c>
       <c r="P19" t="n">
         <v>48.2183908045977</v>
@@ -2035,19 +2035,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2923926735840543</v>
+        <v>0.2923926735443984</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.09199749583626064</v>
+        <v>-0.09199749623540895</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6933752746903646</v>
+        <v>0.6933752743091312</v>
       </c>
       <c r="W19" t="n">
-        <v>-37.69291670924981</v>
+        <v>-37.69292632465201</v>
       </c>
       <c r="X19" t="n">
-        <v>0.2787726330936115</v>
+        <v>0.2787726341733412</v>
       </c>
       <c r="Y19" t="n">
         <v>261</v>
@@ -2070,40 +2070,40 @@
         <v>4452</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9409799581662515</v>
+        <v>0.9409799581662533</v>
       </c>
       <c r="E20" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>42.43896635539461</v>
+        <v>42.4389663561863</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="I20" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="J20" t="n">
-        <v>8.982527970052599e-09</v>
+        <v>8.701203977853826e-09</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2376051615399482</v>
+        <v>0.2376051615172176</v>
       </c>
       <c r="L20" t="n">
-        <v>-2.062470032988684e-13</v>
+        <v>-1.062290953371392e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>2.082199887180131e-14</v>
+        <v>-6.438612946335717e-14</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6513122264982271</v>
+        <v>0.6513122265774273</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.141105090367603e-14</v>
+        <v>7.787299966211779e-15</v>
       </c>
       <c r="P20" t="n">
         <v>48.2183908045977</v>
@@ -2118,19 +2118,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2352453161501331</v>
+        <v>0.2352453161548079</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.2342059837289697</v>
+        <v>-0.2342059837129461</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7094097193672451</v>
+        <v>0.7094097194033898</v>
       </c>
       <c r="W20" t="n">
-        <v>-42.43896635539461</v>
+        <v>-42.4389663561863</v>
       </c>
       <c r="X20" t="n">
-        <v>0.313707148948428</v>
+        <v>0.3137071489485274</v>
       </c>
       <c r="Y20" t="n">
         <v>261</v>
@@ -2153,40 +2153,40 @@
         <v>4712.5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9087046057688207</v>
+        <v>0.9087046057688215</v>
       </c>
       <c r="E21" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>47.73882924659712</v>
+        <v>47.73882260904524</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="I21" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0002364308335301706</v>
+        <v>-0.0002340459870621166</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3470972079529354</v>
+        <v>0.3470974847616108</v>
       </c>
       <c r="L21" t="n">
-        <v>-3.391603237573166e-14</v>
+        <v>-2.511751490557729e-14</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.09597160406867e-14</v>
+        <v>1.262996117946412e-14</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6386075248872595</v>
+        <v>0.6386075249744424</v>
       </c>
       <c r="O21" t="n">
-        <v>1.424928551220826e-15</v>
+        <v>6.642549758103436e-15</v>
       </c>
       <c r="P21" t="n">
         <v>48.15384615384615</v>
@@ -2201,19 +2201,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3125266492448628</v>
+        <v>0.312526649298951</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.141413965345528</v>
+        <v>-0.1414139652914594</v>
       </c>
       <c r="V21" t="n">
-        <v>0.69224317122009</v>
+        <v>0.6922431713166746</v>
       </c>
       <c r="W21" t="n">
-        <v>-47.73882924659712</v>
+        <v>-47.73882260904524</v>
       </c>
       <c r="X21" t="n">
-        <v>0.4600749051988202</v>
+        <v>0.4600749019655089</v>
       </c>
       <c r="Y21" t="n">
         <v>260</v>
@@ -2236,40 +2236,40 @@
         <v>4973</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8570575767345859</v>
+        <v>0.857057576734591</v>
       </c>
       <c r="E22" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>53.27214946931355</v>
+        <v>53.272149478701</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="I22" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="J22" t="n">
-        <v>8.338613061855886e-09</v>
+        <v>4.941177812590859e-09</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5003725945525697</v>
+        <v>0.5003725942693624</v>
       </c>
       <c r="L22" t="n">
-        <v>-2.627119334123087e-13</v>
+        <v>-9.986094539617869e-14</v>
       </c>
       <c r="M22" t="n">
-        <v>9.967548285260146e-14</v>
+        <v>6.336991382893973e-14</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6712618025213614</v>
+        <v>0.6712618024984834</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.239025910393929e-14</v>
+        <v>-5.064488632638741e-15</v>
       </c>
       <c r="P22" t="n">
         <v>48.2183908045977</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3208549303013359</v>
+        <v>0.3208549303275279</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.2084990249710548</v>
+        <v>-0.2084990250621298</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7444977296850698</v>
+        <v>0.7444977296349982</v>
       </c>
       <c r="W22" t="n">
-        <v>-53.27214946931355</v>
+        <v>-53.272149478701</v>
       </c>
       <c r="X22" t="n">
-        <v>0.6533043286768397</v>
+        <v>0.6533043286786012</v>
       </c>
       <c r="Y22" t="n">
         <v>261</v>
